--- a/__RiKi_readme.xlsx
+++ b/__RiKi_readme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondou\Documents\GitHub\pycv5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8222EDC8-5964-4159-AF96-CFF20A6EDC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2924F8-1CEA-4A79-A92F-49DE3B79730D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
   </bookViews>
   <sheets>
     <sheet name="icon" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="116">
   <si>
     <t>音声処理モジュール群</t>
     <rPh sb="0" eb="2">
@@ -759,12 +759,101 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>必要があれば、Google、Siri、Alexsa、クローバ、コルタナさんたちとも連携します。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RiKiは生まれたばかり。</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、RiKiは、他のアプリと連携することを前提に設計されています。</t>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたは、RiKiに何をさせたいですか？</t>
+    <rPh sb="10" eb="11">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RiKi は、ＰＣを快適に操作するための、(オープンソース) ＡＩアシスタントです。</t>
+    <rPh sb="10" eb="12">
+      <t>カイテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でも、Google、Siri、Alexsa、クローバ、コルタナさん達とは違います。</t>
+    <rPh sb="33" eb="34">
+      <t>タチ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RiKi は、音声でＰＣ操作することもできますが、その機能はまだ限定的です。</t>
+    <rPh sb="7" eb="9">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ゲンテイテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(オープンソースによる) AIアシスタントの新たな時代の幕開けです。</t>
+    <rPh sb="22" eb="23">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジダイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>マクア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,6 +899,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="HG丸ｺﾞｼｯｸM-PRO"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="HG丸ｺﾞｼｯｸM-PRO"/>
       <family val="3"/>
       <charset val="128"/>
@@ -987,7 +1083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,17 +1093,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1028,9 +1115,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1094,6 +1178,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3277,8 +3376,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4574,17 +4673,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29839257-4186-47B0-9C0E-9B684E331EE8}">
-  <dimension ref="A1"/>
+  <dimension ref="I2:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="8" width="9" style="36"/>
+    <col min="9" max="9" width="160.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I2" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I3" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I5" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I6" s="36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I7" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I10" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I12" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I15" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4600,1139 +4746,1144 @@
   <cols>
     <col min="1" max="2" width="2.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="4" customWidth="1"/>
-    <col min="9" max="9" width="3.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="3" customWidth="1"/>
     <col min="11" max="13" width="2.625" style="2" customWidth="1"/>
     <col min="14" max="14" width="15.25" style="2" customWidth="1"/>
-    <col min="15" max="16" width="15.25" style="4" customWidth="1"/>
+    <col min="15" max="16" width="15.25" style="3" customWidth="1"/>
     <col min="17" max="17" width="9" style="2"/>
     <col min="18" max="19" width="2.625" style="2" customWidth="1"/>
     <col min="20" max="20" width="15.25" style="2" customWidth="1"/>
-    <col min="21" max="22" width="15.25" style="4" customWidth="1"/>
+    <col min="21" max="22" width="15.25" style="3" customWidth="1"/>
     <col min="23" max="23" width="9" style="2"/>
     <col min="24" max="24" width="2.625" style="2" customWidth="1"/>
     <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="24" x14ac:dyDescent="0.4">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="N1" s="5" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="N1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="T1" s="5" t="s">
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="T1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
     </row>
     <row r="3" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="N3" s="6" t="s">
+      <c r="D3" s="35"/>
+      <c r="N3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-      <c r="T3" s="6" t="s">
+      <c r="O3" s="35"/>
+      <c r="P3" s="4"/>
+      <c r="T3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="7"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="4"/>
     </row>
     <row r="4" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="11"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="11"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="8"/>
     </row>
     <row r="5" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="12"/>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="9"/>
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="M5" s="12"/>
-      <c r="O5" s="4" t="s">
+      <c r="K5" s="10"/>
+      <c r="M5" s="9"/>
+      <c r="O5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="S5" s="12"/>
-      <c r="U5" s="4" t="s">
+      <c r="Q5" s="10"/>
+      <c r="S5" s="9"/>
+      <c r="U5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W5" s="13"/>
+      <c r="W5" s="10"/>
     </row>
     <row r="6" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="M6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="S6" s="12"/>
-      <c r="W6" s="13"/>
+      <c r="B6" s="9"/>
+      <c r="K6" s="10"/>
+      <c r="M6" s="9"/>
+      <c r="Q6" s="10"/>
+      <c r="S6" s="9"/>
+      <c r="W6" s="10"/>
     </row>
     <row r="7" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="12"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="K7" s="13"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="14" t="s">
+      <c r="D7" s="32"/>
+      <c r="K7" s="10"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="14"/>
+      <c r="O7" s="32"/>
       <c r="P7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="14" t="s">
+      <c r="Q7" s="10"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="14"/>
+      <c r="U7" s="32"/>
       <c r="V7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W7" s="13"/>
+      <c r="W7" s="10"/>
     </row>
     <row r="8" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="12"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17" t="s">
+      <c r="B8" s="9"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="18"/>
-      <c r="K8" s="13"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="14"/>
+      <c r="K8" s="10"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="13"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
+      <c r="Q8" s="10"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="13"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+      <c r="B9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="13"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
+      <c r="Q9" s="10"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="13"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="12"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="K10" s="13"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="14" t="s">
+      <c r="D10" s="32"/>
+      <c r="K10" s="10"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="14"/>
+      <c r="O10" s="32"/>
       <c r="P10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="14" t="s">
+      <c r="Q10" s="10"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="14"/>
+      <c r="U10" s="32"/>
       <c r="V10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W10" s="13"/>
+      <c r="W10" s="10"/>
     </row>
     <row r="11" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="12"/>
-      <c r="D11" s="15" t="s">
+      <c r="B11" s="9"/>
+      <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="14" t="s">
+      <c r="K11" s="10"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="14"/>
+      <c r="O11" s="32"/>
       <c r="P11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="13"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
+      <c r="Q11" s="10"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="13"/>
+      <c r="W11" s="10"/>
     </row>
     <row r="12" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
+      <c r="B12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="13"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
+      <c r="Q12" s="10"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="13"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="13" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="12"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="K13" s="13"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="14" t="s">
+      <c r="D13" s="32"/>
+      <c r="K13" s="10"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="14"/>
+      <c r="O13" s="32"/>
       <c r="P13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" s="13"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
+      <c r="Q13" s="10"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="13"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="12"/>
-      <c r="D14" s="15" t="s">
+      <c r="B14" s="9"/>
+      <c r="D14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="14" t="s">
+      <c r="K14" s="10"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="14"/>
+      <c r="O14" s="32"/>
       <c r="P14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="13"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
+      <c r="Q14" s="10"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="13"/>
+      <c r="W14" s="10"/>
     </row>
     <row r="15" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="12"/>
-      <c r="H15" s="20" t="s">
+      <c r="B15" s="9"/>
+      <c r="H15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="K15" s="10"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="13"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
+      <c r="Q15" s="10"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="13"/>
+      <c r="W15" s="10"/>
     </row>
     <row r="16" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="12"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="4" t="s">
+      <c r="B16" s="9"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="13"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="14" t="s">
+      <c r="K16" s="10"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="14"/>
+      <c r="O16" s="32"/>
       <c r="P16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="13"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
+      <c r="Q16" s="10"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="13"/>
+      <c r="W16" s="10"/>
     </row>
     <row r="17" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="12"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24" t="s">
+      <c r="B17" s="9"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="13"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="14" t="s">
+      <c r="K17" s="10"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="14"/>
+      <c r="O17" s="32"/>
       <c r="P17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
+      <c r="Q17" s="10"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="13"/>
+      <c r="W17" s="10"/>
     </row>
     <row r="18" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="12"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="13"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
+      <c r="D18" s="32"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="10"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="13"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
+      <c r="Q18" s="10"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="13"/>
+      <c r="W18" s="10"/>
     </row>
     <row r="19" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="12"/>
-      <c r="H19" s="15" t="s">
+      <c r="B19" s="9"/>
+      <c r="H19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="13"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="14" t="s">
+      <c r="K19" s="10"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="14"/>
+      <c r="O19" s="32"/>
       <c r="P19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q19" s="13"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
+      <c r="Q19" s="10"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="13"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="12"/>
-      <c r="K20" s="13"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="14" t="s">
+      <c r="B20" s="9"/>
+      <c r="K20" s="10"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="14"/>
+      <c r="O20" s="32"/>
       <c r="P20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="13"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
+      <c r="Q20" s="10"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="13"/>
+      <c r="W20" s="10"/>
     </row>
     <row r="21" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="12"/>
-      <c r="K21" s="13"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
+      <c r="B21" s="9"/>
+      <c r="K21" s="10"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="13"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
+      <c r="Q21" s="10"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="13"/>
+      <c r="W21" s="10"/>
     </row>
     <row r="22" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="12"/>
-      <c r="K22" s="13"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="14" t="s">
+      <c r="B22" s="9"/>
+      <c r="K22" s="10"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="14"/>
+      <c r="O22" s="32"/>
       <c r="P22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q22" s="13"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
+      <c r="Q22" s="10"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="13"/>
+      <c r="W22" s="10"/>
     </row>
     <row r="23" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="12"/>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="K23" s="13"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="14" t="s">
+      <c r="D23" s="32"/>
+      <c r="K23" s="10"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="O23" s="14"/>
+      <c r="O23" s="32"/>
       <c r="P23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q23" s="13"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
+      <c r="Q23" s="10"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="13"/>
+      <c r="W23" s="10"/>
     </row>
     <row r="24" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="12"/>
-      <c r="D24" s="15" t="s">
+      <c r="B24" s="9"/>
+      <c r="D24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
+      <c r="K24" s="10"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="13"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
+      <c r="Q24" s="10"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="13"/>
+      <c r="W24" s="10"/>
     </row>
     <row r="25" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="12"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24" t="s">
+      <c r="B25" s="9"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="M25" s="12"/>
+      <c r="K25" s="10"/>
+      <c r="M25" s="9"/>
       <c r="N25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P25" s="28" t="s">
+      <c r="P25" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="Q25" s="13"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
+      <c r="Q25" s="10"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="13"/>
+      <c r="W25" s="10"/>
     </row>
     <row r="26" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="12"/>
-      <c r="F26" s="4" t="s">
+      <c r="B26" s="9"/>
+      <c r="F26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="13"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="14" t="s">
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="10"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="O26" s="14"/>
+      <c r="O26" s="32"/>
       <c r="P26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q26" s="13"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
+      <c r="Q26" s="10"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="13"/>
+      <c r="W26" s="10"/>
     </row>
     <row r="27" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="12"/>
-      <c r="H27" s="29" t="s">
+      <c r="B27" s="9"/>
+      <c r="H27" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="M27" s="12"/>
-      <c r="Q27" s="13"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
+      <c r="K27" s="10"/>
+      <c r="M27" s="9"/>
+      <c r="Q27" s="10"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="13"/>
+      <c r="W27" s="10"/>
     </row>
     <row r="28" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="12"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="4" t="s">
+      <c r="B28" s="9"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="13"/>
-      <c r="M28" s="12"/>
+      <c r="K28" s="10"/>
+      <c r="M28" s="9"/>
       <c r="N28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P28" s="28" t="s">
+      <c r="P28" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="Q28" s="13"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
+      <c r="Q28" s="10"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
       <c r="V28" s="2"/>
-      <c r="W28" s="13"/>
+      <c r="W28" s="10"/>
     </row>
     <row r="29" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="12"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24" t="s">
+      <c r="B29" s="9"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="13"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="14" t="s">
+      <c r="K29" s="10"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="14"/>
+      <c r="O29" s="32"/>
       <c r="P29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q29" s="13"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
+      <c r="Q29" s="10"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="13"/>
+      <c r="W29" s="10"/>
     </row>
     <row r="30" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="12"/>
-      <c r="K30" s="13"/>
-      <c r="M30" s="12"/>
-      <c r="Q30" s="13"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
+      <c r="B30" s="9"/>
+      <c r="K30" s="10"/>
+      <c r="M30" s="9"/>
+      <c r="Q30" s="10"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="13"/>
+      <c r="W30" s="10"/>
     </row>
     <row r="31" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="12"/>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="K31" s="13"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="14" t="s">
+      <c r="D31" s="32"/>
+      <c r="K31" s="10"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="O31" s="14"/>
+      <c r="O31" s="32"/>
       <c r="P31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q31" s="13"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
+      <c r="Q31" s="10"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
       <c r="V31" s="2"/>
-      <c r="W31" s="13"/>
+      <c r="W31" s="10"/>
     </row>
     <row r="32" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="12"/>
-      <c r="D32" s="15" t="s">
+      <c r="B32" s="9"/>
+      <c r="D32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="13"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
+      <c r="K32" s="10"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
       <c r="P32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q32" s="13"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
+      <c r="Q32" s="10"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
       <c r="V32" s="2"/>
-      <c r="W32" s="13"/>
+      <c r="W32" s="10"/>
     </row>
     <row r="33" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="12"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="24" t="s">
+      <c r="B33" s="9"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="27" t="s">
+      <c r="J33" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K33" s="13"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="14" t="s">
+      <c r="K33" s="10"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="14"/>
+      <c r="O33" s="32"/>
       <c r="P33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q33" s="13"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
+      <c r="Q33" s="10"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
       <c r="V33" s="2"/>
-      <c r="W33" s="13"/>
+      <c r="W33" s="10"/>
     </row>
     <row r="34" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="12"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="13"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
+      <c r="B34" s="9"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="10"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="13"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
+      <c r="Q34" s="10"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="13"/>
+      <c r="W34" s="10"/>
     </row>
     <row r="35" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="12"/>
-      <c r="H35" s="30" t="s">
+      <c r="B35" s="9"/>
+      <c r="H35" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="J35" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K35" s="13"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="14" t="s">
+      <c r="K35" s="10"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="32"/>
       <c r="P35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q35" s="13"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
+      <c r="Q35" s="10"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
       <c r="V35" s="2"/>
-      <c r="W35" s="13"/>
+      <c r="W35" s="10"/>
     </row>
     <row r="36" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="12"/>
-      <c r="K36" s="13"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="14" t="s">
+      <c r="B36" s="9"/>
+      <c r="K36" s="10"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="O36" s="14"/>
+      <c r="O36" s="32"/>
       <c r="P36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q36" s="13"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
+      <c r="Q36" s="10"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="13"/>
+      <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="12"/>
-      <c r="C37" s="14" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="K37" s="13"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="14" t="s">
+      <c r="D37" s="32"/>
+      <c r="K37" s="10"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="O37" s="14"/>
+      <c r="O37" s="32"/>
       <c r="P37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q37" s="13"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
+      <c r="Q37" s="10"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
       <c r="V37" s="2"/>
-      <c r="W37" s="13"/>
+      <c r="W37" s="10"/>
     </row>
     <row r="38" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="12"/>
-      <c r="D38" s="15" t="s">
+      <c r="B38" s="9"/>
+      <c r="D38" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K38" s="13"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="14" t="s">
+      <c r="K38" s="10"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="O38" s="14"/>
+      <c r="O38" s="32"/>
       <c r="P38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Q38" s="13"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
+      <c r="Q38" s="10"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
       <c r="V38" s="2"/>
-      <c r="W38" s="13"/>
+      <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="12"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="24" t="s">
+      <c r="B39" s="9"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="25" t="s">
+      <c r="J39" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="13"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="14" t="s">
+      <c r="K39" s="10"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="14"/>
+      <c r="O39" s="32"/>
       <c r="P39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Q39" s="13"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
+      <c r="Q39" s="10"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
       <c r="V39" s="2"/>
-      <c r="W39" s="13"/>
+      <c r="W39" s="10"/>
     </row>
     <row r="40" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="12"/>
-      <c r="K40" s="13"/>
-      <c r="M40" s="12"/>
-      <c r="Q40" s="13"/>
-      <c r="S40" s="12"/>
-      <c r="W40" s="13"/>
+      <c r="B40" s="9"/>
+      <c r="K40" s="10"/>
+      <c r="M40" s="9"/>
+      <c r="Q40" s="10"/>
+      <c r="S40" s="9"/>
+      <c r="W40" s="10"/>
     </row>
     <row r="41" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="12"/>
-      <c r="C41" s="14" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="K41" s="13"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="14" t="s">
+      <c r="D41" s="32"/>
+      <c r="K41" s="10"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="O41" s="14"/>
+      <c r="O41" s="32"/>
       <c r="P41" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q41" s="13"/>
-      <c r="S41" s="12"/>
-      <c r="W41" s="13"/>
+      <c r="Q41" s="10"/>
+      <c r="S41" s="9"/>
+      <c r="W41" s="10"/>
     </row>
     <row r="42" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="12"/>
-      <c r="D42" s="15" t="s">
+      <c r="B42" s="9"/>
+      <c r="D42" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="16" t="s">
+      <c r="I42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="18" t="s">
+      <c r="J42" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K42" s="13"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
+      <c r="K42" s="10"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
       <c r="P42" s="2"/>
-      <c r="Q42" s="13"/>
-      <c r="S42" s="12"/>
-      <c r="W42" s="13"/>
+      <c r="Q42" s="10"/>
+      <c r="S42" s="9"/>
+      <c r="W42" s="10"/>
     </row>
     <row r="43" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="12"/>
-      <c r="K43" s="13"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="14" t="s">
+      <c r="B43" s="9"/>
+      <c r="K43" s="10"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="O43" s="14"/>
+      <c r="O43" s="32"/>
       <c r="P43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q43" s="13"/>
-      <c r="S43" s="12"/>
-      <c r="W43" s="13"/>
+      <c r="Q43" s="10"/>
+      <c r="S43" s="9"/>
+      <c r="W43" s="10"/>
     </row>
     <row r="44" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="12"/>
-      <c r="C44" s="14" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="K44" s="13"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
+      <c r="D44" s="32"/>
+      <c r="K44" s="10"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
       <c r="P44" s="2"/>
-      <c r="Q44" s="13"/>
-      <c r="S44" s="12"/>
-      <c r="W44" s="13"/>
+      <c r="Q44" s="10"/>
+      <c r="S44" s="9"/>
+      <c r="W44" s="10"/>
     </row>
     <row r="45" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="12"/>
-      <c r="D45" s="15" t="s">
+      <c r="B45" s="9"/>
+      <c r="D45" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="16" t="s">
+      <c r="I45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="18" t="s">
+      <c r="J45" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K45" s="13"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="14" t="s">
+      <c r="K45" s="10"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="O45" s="14"/>
+      <c r="O45" s="32"/>
       <c r="P45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q45" s="13"/>
-      <c r="S45" s="12"/>
-      <c r="W45" s="13"/>
+      <c r="Q45" s="10"/>
+      <c r="S45" s="9"/>
+      <c r="W45" s="10"/>
     </row>
     <row r="46" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="12"/>
-      <c r="K46" s="13"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
+      <c r="B46" s="9"/>
+      <c r="K46" s="10"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
       <c r="P46" s="2"/>
-      <c r="Q46" s="13"/>
-      <c r="S46" s="12"/>
-      <c r="W46" s="13"/>
+      <c r="Q46" s="10"/>
+      <c r="S46" s="9"/>
+      <c r="W46" s="10"/>
     </row>
     <row r="47" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="12"/>
-      <c r="C47" s="14" t="s">
+      <c r="B47" s="9"/>
+      <c r="C47" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="14"/>
-      <c r="K47" s="13"/>
-      <c r="M47" s="12"/>
-      <c r="Q47" s="13"/>
-      <c r="S47" s="12"/>
-      <c r="W47" s="13"/>
+      <c r="D47" s="32"/>
+      <c r="K47" s="10"/>
+      <c r="M47" s="9"/>
+      <c r="Q47" s="10"/>
+      <c r="S47" s="9"/>
+      <c r="W47" s="10"/>
     </row>
     <row r="48" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="12"/>
-      <c r="F48" s="30" t="s">
+      <c r="B48" s="9"/>
+      <c r="F48" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J48" s="19" t="s">
+      <c r="J48" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K48" s="13"/>
-      <c r="M48" s="12"/>
-      <c r="Q48" s="13"/>
-      <c r="S48" s="12"/>
-      <c r="W48" s="13"/>
+      <c r="K48" s="10"/>
+      <c r="M48" s="9"/>
+      <c r="Q48" s="10"/>
+      <c r="S48" s="9"/>
+      <c r="W48" s="10"/>
     </row>
     <row r="49" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="12"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="24" t="s">
+      <c r="B49" s="9"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J49" s="25" t="s">
+      <c r="J49" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="K49" s="13"/>
-      <c r="M49" s="12"/>
-      <c r="Q49" s="13"/>
-      <c r="S49" s="12"/>
-      <c r="W49" s="13"/>
+      <c r="K49" s="10"/>
+      <c r="M49" s="9"/>
+      <c r="Q49" s="10"/>
+      <c r="S49" s="9"/>
+      <c r="W49" s="10"/>
     </row>
     <row r="50" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="33"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="33"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="33"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="29"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="29"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="T21:U21"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="N22:O22"/>
@@ -5742,46 +5893,41 @@
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="T24:U24"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5793,7 +5939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DD05DF-782B-4822-AD7E-8F8E36DA9A2A}">
   <dimension ref="B2:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="T14" sqref="T14:U14"/>
     </sheetView>
   </sheetViews>
@@ -5801,35 +5947,35 @@
   <cols>
     <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="3.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="3" customWidth="1"/>
     <col min="10" max="10" width="2.625" style="2" customWidth="1"/>
     <col min="11" max="11" width="53.25" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -5837,232 +5983,232 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="32"/>
       <c r="K6" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="30" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="32"/>
       <c r="K9" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="30" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G12" s="21"/>
-      <c r="H12" s="4" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G13" s="23"/>
-      <c r="H13" s="24" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="C14" s="32"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="32"/>
     </row>
     <row r="20" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G21" s="23"/>
-      <c r="H21" s="24" t="s">
+      <c r="G21" s="19"/>
+      <c r="H21" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="K22" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="K23" s="30" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G24" s="21"/>
-      <c r="H24" s="4" t="s">
+      <c r="G24" s="17"/>
+      <c r="H24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="30" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G25" s="21"/>
-      <c r="I25" s="22"/>
+      <c r="G25" s="17"/>
+      <c r="I25" s="18"/>
       <c r="K25" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G26" s="23"/>
-      <c r="H26" s="24" t="s">
+      <c r="G26" s="19"/>
+      <c r="H26" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="30" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="32"/>
     </row>
     <row r="29" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="15" t="s">
         <v>33</v>
       </c>
       <c r="K29" s="2" t="s">
@@ -6070,11 +6216,11 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G30" s="23"/>
-      <c r="H30" s="24" t="s">
+      <c r="G30" s="19"/>
+      <c r="H30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I30" s="23" t="s">
         <v>44</v>
       </c>
       <c r="K30" s="2" t="s">
@@ -6082,62 +6228,62 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
       <c r="K31" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K32" s="34" t="s">
+      <c r="K32" s="30" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="14"/>
+      <c r="C34" s="32"/>
     </row>
     <row r="35" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="19" t="s">
+      <c r="I35" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G36" s="23"/>
-      <c r="H36" s="24" t="s">
+      <c r="G36" s="19"/>
+      <c r="H36" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="25" t="s">
+      <c r="I36" s="21" t="s">
         <v>18</v>
       </c>
       <c r="K36" s="2" t="s">
@@ -6145,31 +6291,31 @@
       </c>
     </row>
     <row r="38" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="14"/>
+      <c r="C38" s="32"/>
     </row>
     <row r="39" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="I39" s="14" t="s">
         <v>75</v>
       </c>
       <c r="K39" s="2" t="s">
@@ -6177,36 +6323,36 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K40" s="35" t="s">
+      <c r="K40" s="31" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="32"/>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="14" t="s">
         <v>75</v>
       </c>
       <c r="K42" s="2" t="s">
@@ -6214,30 +6360,30 @@
       </c>
     </row>
     <row r="43" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K43" s="34" t="s">
+      <c r="K43" s="30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" s="32"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I45" s="19" t="s">
+      <c r="I45" s="15" t="s">
         <v>75</v>
       </c>
       <c r="K45" s="2" t="s">
@@ -6245,14 +6391,14 @@
       </c>
     </row>
     <row r="46" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G46" s="23"/>
-      <c r="H46" s="24" t="s">
+      <c r="G46" s="19"/>
+      <c r="H46" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="25" t="s">
+      <c r="I46" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="K46" s="34" t="s">
+      <c r="K46" s="30" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6287,199 +6433,223 @@
   <cols>
     <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="3.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="3" customWidth="1"/>
     <col min="10" max="10" width="2.625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="4" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="32"/>
     </row>
     <row r="7" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="32"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
     </row>
     <row r="9" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="32"/>
     </row>
     <row r="10" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="32"/>
     </row>
     <row r="11" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
     </row>
     <row r="12" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="32"/>
     </row>
     <row r="13" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="32"/>
     </row>
     <row r="14" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
     </row>
     <row r="15" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="32"/>
     </row>
     <row r="16" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="32"/>
     </row>
     <row r="17" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
     </row>
     <row r="18" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="32"/>
     </row>
     <row r="19" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="32"/>
     </row>
     <row r="20" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
     </row>
     <row r="21" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="32"/>
     </row>
     <row r="22" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
     </row>
     <row r="23" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="32"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
     </row>
     <row r="25" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="32"/>
     </row>
     <row r="26" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="32"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="32"/>
     </row>
     <row r="28" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="32"/>
     </row>
     <row r="29" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="14"/>
+      <c r="C29" s="32"/>
     </row>
     <row r="30" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="14"/>
+      <c r="C30" s="32"/>
     </row>
     <row r="31" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
     </row>
     <row r="32" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="32"/>
     </row>
     <row r="33" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="14"/>
+      <c r="C34" s="32"/>
     </row>
     <row r="35" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
@@ -6487,30 +6657,6 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/__RiKi_readme.xlsx
+++ b/__RiKi_readme.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondou\Documents\GitHub\pycv5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2924F8-1CEA-4A79-A92F-49DE3B79730D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA20B153-74A4-46CB-87FB-04C564437396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
   </bookViews>
   <sheets>
     <sheet name="icon" sheetId="1" r:id="rId1"/>
-    <sheet name="ReadMe" sheetId="2" r:id="rId2"/>
-    <sheet name="all" sheetId="3" r:id="rId3"/>
-    <sheet name="speech" sheetId="5" r:id="rId4"/>
-    <sheet name="vision" sheetId="4" r:id="rId5"/>
+    <sheet name="Prologue" sheetId="2" r:id="rId2"/>
+    <sheet name="StandAlone" sheetId="6" r:id="rId3"/>
+    <sheet name="all" sheetId="3" r:id="rId4"/>
+    <sheet name="speech" sheetId="5" r:id="rId5"/>
+    <sheet name="vision" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="125">
   <si>
     <t>音声処理モジュール群</t>
     <rPh sb="0" eb="2">
@@ -845,6 +846,123 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>マクア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RiKi は、音声認識、画像認識に加え、デスクトップ状況の認識を統合しています。</t>
+    <rPh sb="7" eb="9">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　speech　:　速記記録</t>
+    <rPh sb="10" eb="12">
+      <t>ソッキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　translator　:　同時翻訳</t>
+    <rPh sb="14" eb="16">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホンヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　camera　:　音声操作カメラ</t>
+    <rPh sb="10" eb="12">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　hud　:　AR機器併用による現場報告・記録</t>
+    <rPh sb="9" eb="11">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゲンバ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　live　:　同時翻訳・ライブ配信</t>
+    <rPh sb="8" eb="10">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたは、RiKiをどのように拡張させますか？</t>
+    <rPh sb="15" eb="17">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　など</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RiKi は、すぐに使えるスタンドアローン実行機能を実装しています。</t>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1180,6 +1298,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1190,9 +1311,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3430,6 +3548,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D17A3C50-369F-47C6-AFF6-A67A2EA00B21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4876800" cy="4876800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4675,54 +4859,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29839257-4186-47B0-9C0E-9B684E331EE8}">
   <dimension ref="I2:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="9" style="36"/>
-    <col min="9" max="9" width="160.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="36"/>
+    <col min="1" max="8" width="9" style="32"/>
+    <col min="9" max="9" width="160.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="2" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="32" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="32" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="32" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="32" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="32" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4735,6 +4919,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA90F03-F518-41E7-A61B-D17B26F82FBD}">
+  <dimension ref="I2:I15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="8" width="9" style="32"/>
+    <col min="9" max="9" width="151.75" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I2" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I3" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I5" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I6" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I8" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I9" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I10" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I11" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I12" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I13" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I15" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1CF62E-A826-4A53-A57F-C544FCD9AD6D}">
   <dimension ref="B1:W50"/>
   <sheetViews>
@@ -4766,39 +5028,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="24" x14ac:dyDescent="0.4">
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="N1" s="34" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="N1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="T1" s="34" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="T1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
     </row>
     <row r="3" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="N3" s="35" t="s">
+      <c r="D3" s="36"/>
+      <c r="N3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="35"/>
+      <c r="O3" s="36"/>
       <c r="P3" s="4"/>
-      <c r="T3" s="35" t="s">
+      <c r="T3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="35"/>
+      <c r="U3" s="36"/>
       <c r="V3" s="4"/>
     </row>
     <row r="4" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4859,25 +5121,25 @@
     </row>
     <row r="7" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="9"/>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="33"/>
       <c r="K7" s="10"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="32"/>
+      <c r="O7" s="33"/>
       <c r="P7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="32" t="s">
+      <c r="T7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="32"/>
+      <c r="U7" s="33"/>
       <c r="V7" s="2" t="s">
         <v>11</v>
       </c>
@@ -4894,13 +5156,13 @@
       <c r="H8" s="14"/>
       <c r="K8" s="10"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="10"/>
       <c r="S8" s="9"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
       <c r="V8" s="2"/>
       <c r="W8" s="10"/>
     </row>
@@ -4908,37 +5170,37 @@
       <c r="B9" s="9"/>
       <c r="K9" s="10"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="10"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
       <c r="V9" s="2"/>
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="9"/>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="K10" s="10"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="32"/>
+      <c r="O10" s="33"/>
       <c r="P10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="32" t="s">
+      <c r="T10" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="32"/>
+      <c r="U10" s="33"/>
       <c r="V10" s="2" t="s">
         <v>17</v>
       </c>
@@ -4963,17 +5225,17 @@
       </c>
       <c r="K11" s="10"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="32" t="s">
+      <c r="N11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="32"/>
+      <c r="O11" s="33"/>
       <c r="P11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
       <c r="V11" s="2"/>
       <c r="W11" s="10"/>
     </row>
@@ -4981,35 +5243,35 @@
       <c r="B12" s="9"/>
       <c r="K12" s="10"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="10"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
       <c r="V12" s="2"/>
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="9"/>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="33"/>
       <c r="K13" s="10"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="32"/>
+      <c r="O13" s="33"/>
       <c r="P13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="10"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
       <c r="V13" s="2"/>
       <c r="W13" s="10"/>
     </row>
@@ -5032,17 +5294,17 @@
       </c>
       <c r="K14" s="10"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="32" t="s">
+      <c r="N14" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="32"/>
+      <c r="O14" s="33"/>
       <c r="P14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="S14" s="9"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
       <c r="V14" s="2"/>
       <c r="W14" s="10"/>
     </row>
@@ -5059,13 +5321,13 @@
       </c>
       <c r="K15" s="10"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="10"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
       <c r="V15" s="2"/>
       <c r="W15" s="10"/>
     </row>
@@ -5080,17 +5342,17 @@
       </c>
       <c r="K16" s="10"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="32"/>
+      <c r="O16" s="33"/>
       <c r="P16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
       <c r="V16" s="2"/>
       <c r="W16" s="10"/>
     </row>
@@ -5105,38 +5367,38 @@
       </c>
       <c r="K17" s="10"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="32" t="s">
+      <c r="N17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="32"/>
+      <c r="O17" s="33"/>
       <c r="P17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q17" s="10"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
       <c r="V17" s="2"/>
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="9"/>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="32"/>
+      <c r="D18" s="33"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="10"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="10"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
       <c r="V18" s="2"/>
       <c r="W18" s="10"/>
     </row>
@@ -5153,17 +5415,17 @@
       </c>
       <c r="K19" s="10"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="32" t="s">
+      <c r="N19" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="32"/>
+      <c r="O19" s="33"/>
       <c r="P19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
       <c r="V19" s="2"/>
       <c r="W19" s="10"/>
     </row>
@@ -5171,17 +5433,17 @@
       <c r="B20" s="9"/>
       <c r="K20" s="10"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="32" t="s">
+      <c r="N20" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="32"/>
+      <c r="O20" s="33"/>
       <c r="P20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="S20" s="9"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
       <c r="V20" s="2"/>
       <c r="W20" s="10"/>
     </row>
@@ -5189,13 +5451,13 @@
       <c r="B21" s="9"/>
       <c r="K21" s="10"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="10"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
       <c r="V21" s="2"/>
       <c r="W21" s="10"/>
     </row>
@@ -5203,39 +5465,39 @@
       <c r="B22" s="9"/>
       <c r="K22" s="10"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="32" t="s">
+      <c r="N22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="32"/>
+      <c r="O22" s="33"/>
       <c r="P22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
       <c r="V22" s="2"/>
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="9"/>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="33"/>
       <c r="K23" s="10"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="32" t="s">
+      <c r="N23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="O23" s="32"/>
+      <c r="O23" s="33"/>
       <c r="P23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q23" s="10"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
       <c r="V23" s="2"/>
       <c r="W23" s="10"/>
     </row>
@@ -5264,13 +5526,13 @@
       </c>
       <c r="K24" s="10"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="10"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
       <c r="V24" s="2"/>
       <c r="W24" s="10"/>
     </row>
@@ -5293,8 +5555,8 @@
       </c>
       <c r="Q25" s="10"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
       <c r="V25" s="2"/>
       <c r="W25" s="10"/>
     </row>
@@ -5308,17 +5570,17 @@
       <c r="J26" s="7"/>
       <c r="K26" s="10"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="32" t="s">
+      <c r="N26" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="O26" s="32"/>
+      <c r="O26" s="33"/>
       <c r="P26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q26" s="10"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
       <c r="V26" s="2"/>
       <c r="W26" s="10"/>
     </row>
@@ -5337,8 +5599,8 @@
       <c r="M27" s="9"/>
       <c r="Q27" s="10"/>
       <c r="S27" s="9"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
       <c r="V27" s="2"/>
       <c r="W27" s="10"/>
     </row>
@@ -5361,8 +5623,8 @@
       </c>
       <c r="Q28" s="10"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
       <c r="V28" s="2"/>
       <c r="W28" s="10"/>
     </row>
@@ -5377,17 +5639,17 @@
       </c>
       <c r="K29" s="10"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="32" t="s">
+      <c r="N29" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="32"/>
+      <c r="O29" s="33"/>
       <c r="P29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Q29" s="10"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
       <c r="V29" s="2"/>
       <c r="W29" s="10"/>
     </row>
@@ -5397,30 +5659,30 @@
       <c r="M30" s="9"/>
       <c r="Q30" s="10"/>
       <c r="S30" s="9"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
       <c r="V30" s="2"/>
       <c r="W30" s="10"/>
     </row>
     <row r="31" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="9"/>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="33"/>
       <c r="K31" s="10"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="32" t="s">
+      <c r="N31" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="O31" s="32"/>
+      <c r="O31" s="33"/>
       <c r="P31" s="2" t="s">
         <v>56</v>
       </c>
       <c r="Q31" s="10"/>
       <c r="S31" s="9"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
       <c r="V31" s="2"/>
       <c r="W31" s="10"/>
     </row>
@@ -5449,15 +5711,15 @@
       </c>
       <c r="K32" s="10"/>
       <c r="M32" s="9"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
       <c r="P32" s="2" t="s">
         <v>59</v>
       </c>
       <c r="Q32" s="10"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
       <c r="V32" s="2"/>
       <c r="W32" s="10"/>
     </row>
@@ -5472,17 +5734,17 @@
       </c>
       <c r="K33" s="10"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="32" t="s">
+      <c r="N33" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="32"/>
+      <c r="O33" s="33"/>
       <c r="P33" s="2" t="s">
         <v>61</v>
       </c>
       <c r="Q33" s="10"/>
       <c r="S33" s="9"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
       <c r="V33" s="2"/>
       <c r="W33" s="10"/>
     </row>
@@ -5493,13 +5755,13 @@
       <c r="J34" s="7"/>
       <c r="K34" s="10"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="10"/>
       <c r="S34" s="9"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
       <c r="V34" s="2"/>
       <c r="W34" s="10"/>
     </row>
@@ -5516,17 +5778,17 @@
       </c>
       <c r="K35" s="10"/>
       <c r="M35" s="9"/>
-      <c r="N35" s="32" t="s">
+      <c r="N35" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="O35" s="32"/>
+      <c r="O35" s="33"/>
       <c r="P35" s="2" t="s">
         <v>63</v>
       </c>
       <c r="Q35" s="10"/>
       <c r="S35" s="9"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
       <c r="V35" s="2"/>
       <c r="W35" s="10"/>
     </row>
@@ -5534,39 +5796,39 @@
       <c r="B36" s="9"/>
       <c r="K36" s="10"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="32" t="s">
+      <c r="N36" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="O36" s="32"/>
+      <c r="O36" s="33"/>
       <c r="P36" s="2" t="s">
         <v>63</v>
       </c>
       <c r="Q36" s="10"/>
       <c r="S36" s="9"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
       <c r="V36" s="2"/>
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="9"/>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="33"/>
       <c r="K37" s="10"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="32" t="s">
+      <c r="N37" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="O37" s="32"/>
+      <c r="O37" s="33"/>
       <c r="P37" s="2" t="s">
         <v>63</v>
       </c>
       <c r="Q37" s="10"/>
       <c r="S37" s="9"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
       <c r="V37" s="2"/>
       <c r="W37" s="10"/>
     </row>
@@ -5595,17 +5857,17 @@
       </c>
       <c r="K38" s="10"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="32" t="s">
+      <c r="N38" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="O38" s="32"/>
+      <c r="O38" s="33"/>
       <c r="P38" s="2" t="s">
         <v>69</v>
       </c>
       <c r="Q38" s="10"/>
       <c r="S38" s="9"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
       <c r="V38" s="2"/>
       <c r="W38" s="10"/>
     </row>
@@ -5620,17 +5882,17 @@
       </c>
       <c r="K39" s="10"/>
       <c r="M39" s="9"/>
-      <c r="N39" s="32" t="s">
+      <c r="N39" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="32"/>
+      <c r="O39" s="33"/>
       <c r="P39" s="2" t="s">
         <v>69</v>
       </c>
       <c r="Q39" s="10"/>
       <c r="S39" s="9"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
       <c r="V39" s="2"/>
       <c r="W39" s="10"/>
     </row>
@@ -5644,16 +5906,16 @@
     </row>
     <row r="41" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="9"/>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="33"/>
       <c r="K41" s="10"/>
       <c r="M41" s="9"/>
-      <c r="N41" s="32" t="s">
+      <c r="N41" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="O41" s="32"/>
+      <c r="O41" s="33"/>
       <c r="P41" s="2" t="s">
         <v>73</v>
       </c>
@@ -5686,8 +5948,8 @@
       </c>
       <c r="K42" s="10"/>
       <c r="M42" s="9"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="10"/>
       <c r="S42" s="9"/>
@@ -5697,10 +5959,10 @@
       <c r="B43" s="9"/>
       <c r="K43" s="10"/>
       <c r="M43" s="9"/>
-      <c r="N43" s="32" t="s">
+      <c r="N43" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="O43" s="32"/>
+      <c r="O43" s="33"/>
       <c r="P43" s="2" t="s">
         <v>77</v>
       </c>
@@ -5710,14 +5972,14 @@
     </row>
     <row r="44" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="9"/>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="32"/>
+      <c r="D44" s="33"/>
       <c r="K44" s="10"/>
       <c r="M44" s="9"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="10"/>
       <c r="S44" s="9"/>
@@ -5748,10 +6010,10 @@
       </c>
       <c r="K45" s="10"/>
       <c r="M45" s="9"/>
-      <c r="N45" s="32" t="s">
+      <c r="N45" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="O45" s="32"/>
+      <c r="O45" s="33"/>
       <c r="P45" s="2" t="s">
         <v>81</v>
       </c>
@@ -5763,8 +6025,8 @@
       <c r="B46" s="9"/>
       <c r="K46" s="10"/>
       <c r="M46" s="9"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="10"/>
       <c r="S46" s="9"/>
@@ -5772,10 +6034,10 @@
     </row>
     <row r="47" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="9"/>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="32"/>
+      <c r="D47" s="33"/>
       <c r="K47" s="10"/>
       <c r="M47" s="9"/>
       <c r="Q47" s="10"/>
@@ -5844,19 +6106,63 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T18:U18"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="C10:D10"/>
@@ -5871,63 +6177,19 @@
     <mergeCell ref="T13:U13"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="T14:U14"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5935,7 +6197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DD05DF-782B-4822-AD7E-8F8E36DA9A2A}">
   <dimension ref="B2:K46"/>
   <sheetViews>
@@ -5960,10 +6222,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="4" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="3" t="s">
@@ -5983,10 +6245,10 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="33"/>
       <c r="K6" s="2" t="s">
         <v>86</v>
       </c>
@@ -6012,10 +6274,10 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="33"/>
       <c r="K9" s="2" t="s">
         <v>88</v>
       </c>
@@ -6070,10 +6332,10 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="33"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -6090,10 +6352,10 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="32"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="20" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C20" s="11" t="s">
@@ -6184,10 +6446,10 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="33"/>
     </row>
     <row r="29" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="11" t="s">
@@ -6250,10 +6512,10 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="32"/>
+      <c r="C34" s="33"/>
     </row>
     <row r="35" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="11" t="s">
@@ -6291,10 +6553,10 @@
       </c>
     </row>
     <row r="38" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="32"/>
+      <c r="C38" s="33"/>
     </row>
     <row r="39" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C39" s="11" t="s">
@@ -6328,10 +6590,10 @@
       </c>
     </row>
     <row r="41" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="32"/>
+      <c r="C41" s="33"/>
     </row>
     <row r="42" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" s="11" t="s">
@@ -6365,10 +6627,10 @@
       </c>
     </row>
     <row r="44" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="32"/>
+      <c r="C44" s="33"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E45" s="26" t="s">
@@ -6421,7 +6683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10820637-E9DB-4FA8-966E-D45E678456ED}">
   <dimension ref="B2:I35"/>
   <sheetViews>
@@ -6445,10 +6707,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="4" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="3" t="s">
@@ -6465,167 +6727,186 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="33"/>
     </row>
     <row r="7" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
     </row>
     <row r="9" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="33"/>
     </row>
     <row r="10" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="33"/>
     </row>
     <row r="11" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
     </row>
     <row r="12" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="33"/>
     </row>
     <row r="13" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="33"/>
     </row>
     <row r="14" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
     </row>
     <row r="15" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="33"/>
     </row>
     <row r="16" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="33"/>
     </row>
     <row r="17" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
     </row>
     <row r="18" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="32"/>
+      <c r="C18" s="33"/>
     </row>
     <row r="19" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="32"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="20" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="33"/>
     </row>
     <row r="22" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
     </row>
     <row r="23" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="32"/>
+      <c r="C23" s="33"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
     </row>
     <row r="25" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="32"/>
+      <c r="C25" s="33"/>
     </row>
     <row r="26" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="32"/>
+      <c r="C26" s="33"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="32"/>
+      <c r="C27" s="33"/>
     </row>
     <row r="28" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="33"/>
     </row>
     <row r="29" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="32"/>
+      <c r="C29" s="33"/>
     </row>
     <row r="30" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="32"/>
+      <c r="C30" s="33"/>
     </row>
     <row r="31" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
     </row>
     <row r="32" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="33"/>
     </row>
     <row r="33" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="32"/>
+      <c r="C34" s="33"/>
     </row>
     <row r="35" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B6:C6"/>
@@ -6638,25 +6919,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/__RiKi_readme.xlsx
+++ b/__RiKi_readme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondou\Documents\GitHub\pycv5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA20B153-74A4-46CB-87FB-04C564437396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133FB1EA-E83B-4A0A-94A9-10865E61F406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
   </bookViews>
@@ -761,16 +761,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>必要があれば、Google、Siri、Alexsa、クローバ、コルタナさんたちとも連携します。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RiKiは生まれたばかり。</t>
     <rPh sb="5" eb="6">
       <t>ウ</t>
@@ -811,16 +801,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>でも、Google、Siri、Alexsa、クローバ、コルタナさん達とは違います。</t>
-    <rPh sb="33" eb="34">
-      <t>タチ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RiKi は、音声でＰＣ操作することもできますが、その機能はまだ限定的です。</t>
     <rPh sb="7" eb="9">
       <t>オンセイ</t>
@@ -898,16 +878,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　camera　:　音声操作カメラ</t>
-    <rPh sb="10" eb="12">
-      <t>オンセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　hud　:　AR機器併用による現場報告・記録</t>
     <rPh sb="9" eb="11">
       <t>キキ</t>
@@ -940,13 +910,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あなたは、RiKiをどのように拡張させますか？</t>
-    <rPh sb="15" eb="17">
-      <t>カクチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　など</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -964,6 +927,37 @@
     <rPh sb="26" eb="28">
       <t>ジッソウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でも、Google、Siri、Alexa、クローバ、コルタナさん達とは違います。</t>
+    <rPh sb="32" eb="33">
+      <t>タチ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要があれば、Google、Siri、Alexa、クローバ、コルタナさんたちとも連携します。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたは、RiKiをどのように拡張しますか？</t>
+    <rPh sb="15" eb="17">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　camera　:　ハンズフリーカメラ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4860,7 +4854,7 @@
   <dimension ref="I2:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
@@ -4872,42 +4866,42 @@
   <sheetData>
     <row r="2" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I2" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I3" s="32" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I5" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I6" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I7" s="32" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I10" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I12" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I15" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4935,57 +4929,57 @@
   <sheetData>
     <row r="2" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I2" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I3" s="32" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I5" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I6" s="32" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I8" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I9" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I10" s="32" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I11" s="32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I12" s="32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I13" s="32" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="9:9" x14ac:dyDescent="0.4">
       <c r="I15" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6106,36 +6100,46 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="T21:U21"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="N22:O22"/>
@@ -6150,46 +6154,36 @@
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="T28:U28"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6888,13 +6882,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -6907,18 +6906,13 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/__RiKi_readme.xlsx
+++ b/__RiKi_readme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondou\Documents\GitHub\pycv5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133FB1EA-E83B-4A0A-94A9-10865E61F406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A4D6C-C38E-4976-AC84-524D0EDF4143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
   </bookViews>
   <sheets>
     <sheet name="icon" sheetId="1" r:id="rId1"/>
@@ -3480,15 +3480,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3546,15 +3546,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4851,56 +4851,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29839257-4186-47B0-9C0E-9B684E331EE8}">
-  <dimension ref="I2:I15"/>
+  <dimension ref="J3:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="A1:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="9" style="32"/>
-    <col min="9" max="9" width="160.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="32"/>
+    <col min="1" max="9" width="9" style="32"/>
+    <col min="10" max="10" width="149.625" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I2" s="32" t="s">
+    <row r="3" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J3" s="32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I3" s="32" t="s">
+    <row r="4" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J4" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I5" s="32" t="s">
+    <row r="6" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J6" s="32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I6" s="32" t="s">
+    <row r="7" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J7" s="32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I7" s="32" t="s">
+    <row r="8" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J8" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I10" s="32" t="s">
+    <row r="11" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J11" s="32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I12" s="32" t="s">
+    <row r="13" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J13" s="32" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I15" s="32" t="s">
+    <row r="16" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J16" s="32" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4914,71 +4914,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA90F03-F518-41E7-A61B-D17B26F82FBD}">
-  <dimension ref="I2:I15"/>
+  <dimension ref="J3:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="9" style="32"/>
-    <col min="9" max="9" width="151.75" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="32"/>
+    <col min="1" max="9" width="9" style="32"/>
+    <col min="10" max="10" width="149.625" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I2" s="32" t="s">
+    <row r="3" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J3" s="32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I3" s="32" t="s">
+    <row r="4" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J4" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I5" s="32" t="s">
+    <row r="6" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J6" s="32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I6" s="32" t="s">
+    <row r="7" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J7" s="32" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I8" s="32" t="s">
+    <row r="9" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J9" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I9" s="32" t="s">
+    <row r="10" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J10" s="32" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I10" s="32" t="s">
+    <row r="11" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J11" s="32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I11" s="32" t="s">
+    <row r="12" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J12" s="32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I12" s="32" t="s">
+    <row r="13" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J13" s="32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I13" s="32" t="s">
+    <row r="14" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J14" s="32" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I15" s="32" t="s">
+    <row r="16" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J16" s="32" t="s">
         <v>123</v>
       </c>
     </row>

--- a/__RiKi_readme.xlsx
+++ b/__RiKi_readme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondou\Documents\GitHub\pycv5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A4D6C-C38E-4976-AC84-524D0EDF4143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9441F1-5235-41C2-9254-3A71EF937D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
   </bookViews>
   <sheets>
     <sheet name="icon" sheetId="1" r:id="rId1"/>
@@ -1636,7 +1636,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>52918</xdr:rowOff>
@@ -1708,7 +1708,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>74083</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>54552</xdr:rowOff>
@@ -1770,7 +1770,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>144496</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>192516</xdr:rowOff>
@@ -1873,7 +1873,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>239588</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>158754</xdr:rowOff>
@@ -1939,7 +1939,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>52918</xdr:rowOff>
@@ -2011,7 +2011,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>74083</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>54552</xdr:rowOff>
@@ -2073,7 +2073,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>144496</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>192516</xdr:rowOff>
@@ -2176,7 +2176,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>239588</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>158754</xdr:rowOff>
@@ -2538,7 +2538,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>52918</xdr:rowOff>
@@ -2610,7 +2610,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>74083</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>54552</xdr:rowOff>
@@ -2672,7 +2672,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>144496</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>192516</xdr:rowOff>
@@ -2775,7 +2775,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>239588</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>158754</xdr:rowOff>
@@ -2841,7 +2841,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>52918</xdr:rowOff>
@@ -2913,7 +2913,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>74083</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>54552</xdr:rowOff>
@@ -2975,7 +2975,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>144496</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>192516</xdr:rowOff>
@@ -3078,7 +3078,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>239588</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>158754</xdr:rowOff>
@@ -3213,13 +3213,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>237066</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>7119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>554566</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>17702</xdr:rowOff>
@@ -3282,13 +3282,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>198197</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>232834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>520506</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>243417</xdr:rowOff>
@@ -3351,7 +3351,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>321995</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>173183</xdr:rowOff>
@@ -3413,7 +3413,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>32912</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>36947</xdr:rowOff>
@@ -3460,6 +3460,743 @@
             <a:t>CAM</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="13800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="D60093"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF2D4AF-22A8-4951-A85B-885D6BC738B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent4">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7161069" y="298259"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>54552</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="3630083"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B742F57F-2BC2-4170-82CB-F2421712A805}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7289992" y="631825"/>
+          <a:ext cx="4688417" cy="3630083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="25600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="25600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144496</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>192516</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4571123" cy="1068819"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0188C85B-1A02-410F-8958-18FD3549508B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7360405" y="3713880"/>
+          <a:ext cx="4571123" cy="1068819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Power</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>of</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> AI</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+              <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+            </a:blipFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158754</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{527E0CAF-7A3B-4D22-B9B4-72F1A82F2EE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210156" y="158754"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8340BC1B-8F6C-4BFD-B256-BD02F5600D6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent4">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7161069" y="5537009"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>54552</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="3630083"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D94C6C-8AA4-412F-9FF6-10029B63A8B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7289992" y="5870575"/>
+          <a:ext cx="4688417" cy="3630083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="25600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="25600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144496</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>192516</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4571123" cy="1068819"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235031B0-F09A-45B5-A08D-EEB8BBF34F4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7360405" y="8952630"/>
+          <a:ext cx="4571123" cy="1068819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Power</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>of</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> AI</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+              <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+            </a:blipFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158754</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61AABCEE-1918-4049-9893-FE5CE6D47F23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210156" y="5397504"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>237066</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>554566</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>17702</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="&quot;禁止&quot;マーク 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19FF0FE-8366-44A1-8256-41AA6601489F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8145702" y="6313824"/>
+          <a:ext cx="3088409" cy="3200014"/>
+        </a:xfrm>
+        <a:prstGeom prst="noSmoking">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12706"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D60093"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8668</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51378</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4800866" cy="1539011"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A9E265-EA10-41EF-B930-FD570EA72A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5536054" y="1855355"/>
+          <a:ext cx="4800866" cy="1539011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="8000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="D60093"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SPEECH</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="8000" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
               <a:srgbClr val="D60093"/>
@@ -3905,10 +4642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717500BE-C8E0-43F5-9FE7-5C046546F916}">
-  <dimension ref="B2:Z43"/>
+  <dimension ref="B2:AI43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="66" workbookViewId="0">
-      <selection activeCell="Z42" sqref="T25:Z42"/>
+      <selection activeCell="Q42" sqref="K25:Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3919,9 +4656,11 @@
     <col min="18" max="18" width="2.5" customWidth="1"/>
     <col min="19" max="19" width="3.125" customWidth="1"/>
     <col min="27" max="27" width="2.5" customWidth="1"/>
+    <col min="28" max="28" width="3.125" customWidth="1"/>
+    <col min="36" max="36" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:35" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3943,8 +4682,15 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+    </row>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3966,8 +4712,15 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3989,8 +4742,15 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4012,8 +4772,15 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+    </row>
+    <row r="6" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4035,8 +4802,15 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4058,8 +4832,15 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4081,8 +4862,15 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4104,8 +4892,15 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4127,8 +4922,15 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4150,8 +4952,15 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4173,8 +4982,15 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+    </row>
+    <row r="13" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4196,8 +5012,15 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+    </row>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4219,8 +5042,15 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4242,8 +5072,15 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4265,8 +5102,15 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4288,8 +5132,15 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4311,8 +5162,15 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4334,8 +5192,15 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+    </row>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4357,8 +5222,15 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4380,8 +5252,15 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-    </row>
-    <row r="24" spans="2:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+    </row>
+    <row r="24" spans="2:35" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -4403,8 +5282,15 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+    </row>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4426,8 +5312,15 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -4449,8 +5342,15 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+    </row>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -4472,8 +5372,15 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4495,8 +5402,15 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+    </row>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4518,8 +5432,15 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+    </row>
+    <row r="30" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4541,8 +5462,15 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4564,8 +5492,15 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+    </row>
+    <row r="32" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4587,8 +5522,15 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4610,8 +5552,15 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4633,8 +5582,15 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4656,8 +5612,15 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4679,8 +5642,15 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+    </row>
+    <row r="37" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4702,8 +5672,15 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4725,8 +5702,15 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4748,8 +5732,15 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4771,8 +5762,15 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+    </row>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -4794,8 +5792,15 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -4817,8 +5822,15 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4840,6 +5852,13 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4853,9 +5872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29839257-4186-47B0-9C0E-9B684E331EE8}">
   <dimension ref="J3:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="A1:J17"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4916,9 +5933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA90F03-F518-41E7-A61B-D17B26F82FBD}">
   <dimension ref="J3:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6100,19 +7115,63 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T18:U18"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="C10:D10"/>
@@ -6127,63 +7186,19 @@
     <mergeCell ref="T13:U13"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="T14:U14"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6882,6 +7897,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B6:C6"/>
@@ -6894,25 +7928,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/__RiKi_readme.xlsx
+++ b/__RiKi_readme.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondou\Documents\GitHub\pycv5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondou\Documents\GitHub\pyRiKi1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9441F1-5235-41C2-9254-3A71EF937D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BF30BE-034C-4455-B800-21658E00E017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
   </bookViews>
   <sheets>
-    <sheet name="icon" sheetId="1" r:id="rId1"/>
-    <sheet name="Prologue" sheetId="2" r:id="rId2"/>
-    <sheet name="StandAlone" sheetId="6" r:id="rId3"/>
-    <sheet name="all" sheetId="3" r:id="rId4"/>
-    <sheet name="speech" sheetId="5" r:id="rId5"/>
-    <sheet name="vision" sheetId="4" r:id="rId6"/>
+    <sheet name="base" sheetId="7" r:id="rId1"/>
+    <sheet name="icon" sheetId="1" r:id="rId2"/>
+    <sheet name="Prologue" sheetId="2" r:id="rId3"/>
+    <sheet name="StandAlone" sheetId="6" r:id="rId4"/>
+    <sheet name="all" sheetId="3" r:id="rId5"/>
+    <sheet name="speech" sheetId="5" r:id="rId6"/>
+    <sheet name="vision" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1332,6 +1333,809 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40CED43-FDCA-4A41-A0EB-A37F97B4BC44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="190501" y="291043"/>
+          <a:ext cx="4932891" cy="4399398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>213302</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C860B458-FAC0-448B-B352-7735DB5AEC72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="319424" y="545234"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158754</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6302AD-EDF4-4C10-9210-54B52652A15A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="239588" y="158754"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD32E7A-992F-4DF6-A62A-184394AB946F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent6">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10648951" y="291043"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>213302</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAED191F-ACA7-48C7-9A5A-83269DCBD197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10883515" y="545234"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158754</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43448D2-F80F-4849-934D-838A8E5EF098}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10698038" y="158754"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E73530-2A8A-475C-B3B0-759759778486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15878176" y="291043"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>213302</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B03DFC7-BD0F-40C1-986C-CB7E38D91031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16165560" y="545234"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158754</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F9B685-21B1-4B0E-9684-1FB6A4029B09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15927263" y="158754"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09CBE7E-5F50-414A-BFDF-8E63E37F5307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent4">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5419726" y="291043"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>213302</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB230B83-F3C3-4FF8-AEA9-C3C111DB82A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5601469" y="545234"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158754</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC7A950-26A7-46FC-ADC5-2EDF928E0799}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5468813" y="158754"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4213,7 +5017,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4279,7 +5083,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4641,6 +5445,1234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BD8D7F-E8F3-49D1-B811-542A9EEAF68E}">
+  <dimension ref="B2:AI43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="9" max="9" width="2.5" customWidth="1"/>
+    <col min="10" max="10" width="3.125" customWidth="1"/>
+    <col min="18" max="18" width="2.5" customWidth="1"/>
+    <col min="19" max="19" width="3.125" customWidth="1"/>
+    <col min="27" max="27" width="2.5" customWidth="1"/>
+    <col min="28" max="28" width="3.125" customWidth="1"/>
+    <col min="36" max="36" width="2.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:35" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+    </row>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+    </row>
+    <row r="6" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+    </row>
+    <row r="13" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+    </row>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+    </row>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+    </row>
+    <row r="24" spans="2:35" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+    </row>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+    </row>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+    </row>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+    </row>
+    <row r="30" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+    </row>
+    <row r="32" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+    </row>
+    <row r="37" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+    </row>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717500BE-C8E0-43F5-9FE7-5C046546F916}">
   <dimension ref="B2:AI43"/>
   <sheetViews>
@@ -5868,7 +7900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29839257-4186-47B0-9C0E-9B684E331EE8}">
   <dimension ref="J3:J16"/>
   <sheetViews>
@@ -5929,11 +7961,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA90F03-F518-41E7-A61B-D17B26F82FBD}">
   <dimension ref="J3:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6005,7 +8037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1CF62E-A826-4A53-A57F-C544FCD9AD6D}">
   <dimension ref="B1:W50"/>
   <sheetViews>
@@ -7115,36 +9147,46 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="T21:U21"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="N22:O22"/>
@@ -7159,46 +9201,36 @@
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="T28:U28"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7206,7 +9238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DD05DF-782B-4822-AD7E-8F8E36DA9A2A}">
   <dimension ref="B2:K46"/>
   <sheetViews>
@@ -7692,7 +9724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10820637-E9DB-4FA8-966E-D45E678456ED}">
   <dimension ref="B2:I35"/>
   <sheetViews>
@@ -7897,13 +9929,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -7916,18 +9953,13 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
